--- a/data/case1/18/Q1_2.xlsx
+++ b/data/case1/18/Q1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.28013860671403279</v>
+        <v>0.24293860647387078</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999609026133</v>
+        <v>-0.036114300817434497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999655861984</v>
+        <v>-0.0039999999778110862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999373008279</v>
+        <v>-0.0079999999596012117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999644294562</v>
+        <v>-0.0029999999759011686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.001999999962675858</v>
+        <v>-0.0019999999727140505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.014911508532334583</v>
+        <v>-0.0099999999413125096</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999136941575</v>
+        <v>-0.0099999999392772487</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999641262534</v>
+        <v>-0.0019999999677073887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999655464507</v>
+        <v>-0.0019999999655784251</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.032359375153812486</v>
+        <v>-0.0029999999614993555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999556242223</v>
+        <v>-0.0034999999590135111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999529095049</v>
+        <v>-0.0034999999568050555</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999246700426</v>
+        <v>-0.0079999999388995491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0009999999674024096</v>
+        <v>-0.00099999996543953529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999608169006</v>
+        <v>-0.0019999999612076991</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999603994567</v>
+        <v>-0.0019999999606916674</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999479176651</v>
+        <v>-0.0039999999528044228</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.03358919142457939</v>
+        <v>-0.0039999999831437094</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999582089885</v>
+        <v>-0.017396675597687761</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999549049647</v>
+        <v>-0.0039999999805910846</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.069142158164349432</v>
+        <v>-0.0039999999804347652</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999573158149</v>
+        <v>-0.0049999999727363686</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.01999999986133183</v>
+        <v>-0.019999999912729827</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999859378725</v>
+        <v>-0.019999999911560984</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999584007782</v>
+        <v>-0.002499999970153155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.002499999956508514</v>
+        <v>-0.0024999999692774111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999517867906</v>
+        <v>-0.0019999999672961621</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.017110080652241955</v>
+        <v>-0.0069999999452727835</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999584797958</v>
+        <v>-0.059999999740212306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999083307785</v>
+        <v>0.032365023028376072</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998895263786</v>
+        <v>-0.0099999999332176515</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.003999999926362463</v>
+        <v>-0.0039999999561963762</v>
       </c>
     </row>
   </sheetData>
